--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>759402.1522609473</v>
+        <v>757621.903576268</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23771180.23730299</v>
+        <v>23771180.237303</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2608657.44190259</v>
+        <v>2608657.441902589</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>114.562562600275</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>358.4193849698333</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -755,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>51.23805775362439</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>195.5453558642422</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.4753625005199</v>
+        <v>248.2566053778752</v>
       </c>
     </row>
     <row r="6">
@@ -1028,7 +1028,7 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
-        <v>128.8768572327043</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
         <v>174.5731815300314</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>140.8415206342685</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>117.6178969257491</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>332.0164959768351</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>416.8602606516665</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1302,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>102.4424374701089</v>
       </c>
       <c r="X10" t="n">
-        <v>229.8635849988177</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>162.0725738144055</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1381,10 +1381,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>396.4368775949458</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>61.23615160042885</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.7211697444214</v>
       </c>
       <c r="U11" t="n">
-        <v>35.7664011651871</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>148.8078278181595</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>396.3093622455247</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.4368775949458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>276.5406404993261</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>61.23615160042885</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.7211697444214</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5543216187114</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1846,22 +1846,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>341.2993228255989</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>396.4368775949458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>276.5406404993261</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>61.23615160042885</v>
       </c>
       <c r="T17" t="n">
-        <v>213.7211697444214</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5543216187114</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>163.2026996695622</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>416.0576825215664</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2092,10 +2092,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>396.3093622455247</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>396.4368775949458</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>61.23615160042885</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2572,7 +2572,7 @@
         <v>396.4368775949458</v>
       </c>
       <c r="H26" t="n">
-        <v>276.5406404993262</v>
+        <v>276.5406404993261</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.23615160042885</v>
+        <v>61.23615160042929</v>
       </c>
       <c r="T26" t="n">
         <v>213.7211697444214</v>
@@ -2848,7 +2848,7 @@
         <v>213.7211697444214</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5543216187114</v>
+        <v>256.5543216187116</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -3085,7 +3085,7 @@
         <v>213.7211697444214</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5543216187116</v>
+        <v>256.5543216187114</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3274,7 +3274,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>14.8777819291118</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>61.23615160042885</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.7211697444214</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.5543216187114</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>354.5465265884576</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3508,13 +3508,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>31.54088704530454</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>396.4368775949458</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>61.23615160042885</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.7211697444214</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.5543216187114</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.3918233223062589</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3742,13 +3742,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>64.49503509063857</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>275.4754732944124</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>396.4368775949458</v>
       </c>
       <c r="H41" t="n">
-        <v>276.5406404993261</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>61.23615160042885</v>
       </c>
       <c r="T41" t="n">
         <v>213.7211697444214</v>
@@ -3979,19 +3979,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>9.107125588612844</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>396.4368775949458</v>
+        <v>350.1419648490034</v>
       </c>
       <c r="H44" t="n">
         <v>276.5406404993261</v>
@@ -4039,10 +4039,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1434.694206920162</v>
+        <v>888.1040799405455</v>
       </c>
       <c r="C2" t="n">
-        <v>1318.974446717864</v>
+        <v>854.0020111643728</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>491.9622283665614</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>437.0247332457074</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1476.301152404893</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>1461.199093024608</v>
+        <v>914.6089660449918</v>
       </c>
       <c r="Y2" t="n">
-        <v>1456.953373364666</v>
+        <v>910.3632463850493</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>486.8231175458835</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>314.2614060291084</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
         <v>262.5057921365585</v>
@@ -4494,16 +4494,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N4" t="n">
-        <v>1233.544589050298</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O4" t="n">
-        <v>1233.544589050298</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1340.421499899382</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1340.421499899382</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V4" t="n">
-        <v>1340.421499899382</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W4" t="n">
-        <v>1340.421499899382</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="X4" t="n">
-        <v>1340.421499899382</v>
+        <v>906.0614069507624</v>
       </c>
       <c r="Y4" t="n">
-        <v>1113.00182921349</v>
+        <v>678.6417362648706</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>153.8932738874814</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>119.7912051113087</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>846.059151609114</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>830.9570922288287</v>
       </c>
       <c r="Y5" t="n">
-        <v>579.7760549995292</v>
+        <v>580.1928443723891</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,40 +4634,40 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1644.724363562988</v>
       </c>
       <c r="R6" t="n">
         <v>1697.183430080417</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>514.6475351736976</v>
+        <v>756.2696148467799</v>
       </c>
       <c r="C7" t="n">
-        <v>342.0858236569226</v>
+        <v>583.7079033300048</v>
       </c>
       <c r="D7" t="n">
-        <v>176.2078308584452</v>
+        <v>583.7079033300048</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>583.7079033300048</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>407.000849291761</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>241.4095743175887</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4731,16 +4731,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V7" t="n">
-        <v>1451.303983658873</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W7" t="n">
-        <v>1179.277579245164</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="X7" t="n">
-        <v>933.8858245785766</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="Y7" t="n">
-        <v>706.4661538926848</v>
+        <v>756.2696148467799</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.721030006719</v>
+        <v>545.2299034413993</v>
       </c>
       <c r="C8" t="n">
-        <v>915.3508320503199</v>
+        <v>511.1278346652267</v>
       </c>
       <c r="D8" t="n">
-        <v>486.7691577875882</v>
+        <v>479.2584538800753</v>
       </c>
       <c r="E8" t="n">
         <v>58.18748352485655</v>
@@ -4804,16 +4804,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
         <v>453.9965675465116</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>990.8772529665349</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>571.7347895458456</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>567.4890698859031</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,34 +4871,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M9" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N9" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>847.6348259499213</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>675.0731144331462</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>509.1951216346689</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F10" t="n">
         <v>339.4371178854062</v>
@@ -4962,13 +4962,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M10" t="n">
         <v>761.8145120199619</v>
@@ -4992,22 +4992,22 @@
         <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.765608785789</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U10" t="n">
-        <v>1675.765608785789</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V10" t="n">
-        <v>1675.765608785789</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="W10" t="n">
-        <v>1675.765608785789</v>
+        <v>1039.453444668908</v>
       </c>
       <c r="X10" t="n">
-        <v>1443.580169393044</v>
+        <v>1039.453444668908</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>1039.453444668908</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1796.140710589047</v>
+        <v>1494.281769201225</v>
       </c>
       <c r="C11" t="n">
-        <v>1357.99823777247</v>
+        <v>1330.572098681623</v>
       </c>
       <c r="D11" t="n">
-        <v>922.0884529469149</v>
+        <v>894.6623138560678</v>
       </c>
       <c r="E11" t="n">
-        <v>488.31370810521</v>
+        <v>460.8875690143631</v>
       </c>
       <c r="F11" t="n">
-        <v>60.4462785144178</v>
+        <v>460.8875690143631</v>
       </c>
       <c r="G11" t="n">
         <v>60.4462785144178</v>
@@ -5041,22 +5041,22 @@
         <v>96.18097226372217</v>
       </c>
       <c r="J11" t="n">
-        <v>175.7505978015421</v>
+        <v>611.0052852544601</v>
       </c>
       <c r="K11" t="n">
-        <v>923.7732944174624</v>
+        <v>730.2595276380766</v>
       </c>
       <c r="L11" t="n">
-        <v>1071.71872727579</v>
+        <v>878.2049604964046</v>
       </c>
       <c r="M11" t="n">
-        <v>1236.336527363777</v>
+        <v>1042.822760584391</v>
       </c>
       <c r="N11" t="n">
-        <v>1403.618015559798</v>
+        <v>1210.104248780412</v>
       </c>
       <c r="O11" t="n">
-        <v>2011.715918180917</v>
+        <v>1398.507715025819</v>
       </c>
       <c r="P11" t="n">
         <v>2146.530411641739</v>
@@ -5068,25 +5068,25 @@
         <v>3022.31392572089</v>
       </c>
       <c r="S11" t="n">
-        <v>3022.31392572089</v>
+        <v>2960.459227134598</v>
       </c>
       <c r="T11" t="n">
-        <v>3022.31392572089</v>
+        <v>2744.579257695789</v>
       </c>
       <c r="U11" t="n">
-        <v>2986.186247776257</v>
+        <v>2744.579257695789</v>
       </c>
       <c r="V11" t="n">
-        <v>2623.569297710083</v>
+        <v>2744.579257695789</v>
       </c>
       <c r="W11" t="n">
-        <v>2623.569297710083</v>
+        <v>2339.723803106822</v>
       </c>
       <c r="X11" t="n">
-        <v>2204.426834289394</v>
+        <v>1920.581339686133</v>
       </c>
       <c r="Y11" t="n">
-        <v>1796.140710589047</v>
+        <v>1920.581339686133</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>77.71661519010527</v>
       </c>
       <c r="J12" t="n">
-        <v>449.6660640201372</v>
+        <v>408.1155573903454</v>
       </c>
       <c r="K12" t="n">
-        <v>530.6650430505558</v>
+        <v>489.1145364207641</v>
       </c>
       <c r="L12" t="n">
-        <v>639.5781662518182</v>
+        <v>598.0276596220264</v>
       </c>
       <c r="M12" t="n">
-        <v>766.6746439275463</v>
+        <v>725.1241372977545</v>
       </c>
       <c r="N12" t="n">
-        <v>897.1349871799785</v>
+        <v>855.5844805501866</v>
       </c>
       <c r="O12" t="n">
-        <v>1016.480713759089</v>
+        <v>974.9302071292973</v>
       </c>
       <c r="P12" t="n">
-        <v>1112.26618104394</v>
+        <v>1070.715674414148</v>
       </c>
       <c r="Q12" t="n">
         <v>1675.484661276697</v>
@@ -5178,19 +5178,19 @@
         <v>1122.357189429985</v>
       </c>
       <c r="C13" t="n">
-        <v>949.7954779132095</v>
+        <v>949.7954779132101</v>
       </c>
       <c r="D13" t="n">
-        <v>783.9174851147322</v>
+        <v>783.9174851147327</v>
       </c>
       <c r="E13" t="n">
-        <v>614.1594813654694</v>
+        <v>614.1594813654697</v>
       </c>
       <c r="F13" t="n">
-        <v>437.4524273272257</v>
+        <v>437.4524273272259</v>
       </c>
       <c r="G13" t="n">
-        <v>272.2902236602858</v>
+        <v>272.2902236602859</v>
       </c>
       <c r="H13" t="n">
         <v>136.2028833367831</v>
@@ -5199,7 +5199,7 @@
         <v>60.4462785144178</v>
       </c>
       <c r="J13" t="n">
-        <v>105.064754971229</v>
+        <v>176.7576318061685</v>
       </c>
       <c r="K13" t="n">
         <v>428.6814734826806</v>
@@ -5238,7 +5238,7 @@
         <v>2059.01363791516</v>
       </c>
       <c r="W13" t="n">
-        <v>1786.987233501451</v>
+        <v>1786.987233501452</v>
       </c>
       <c r="X13" t="n">
         <v>1541.595478834864</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1768.585768114946</v>
+        <v>890.5324865067729</v>
       </c>
       <c r="C14" t="n">
-        <v>1330.44329529837</v>
+        <v>740.2215493167128</v>
       </c>
       <c r="D14" t="n">
-        <v>894.5335104728142</v>
+        <v>740.2215493167128</v>
       </c>
       <c r="E14" t="n">
-        <v>460.7587656311094</v>
+        <v>740.2215493167128</v>
       </c>
       <c r="F14" t="n">
-        <v>60.4462785144178</v>
+        <v>740.2215493167128</v>
       </c>
       <c r="G14" t="n">
-        <v>60.4462785144178</v>
+        <v>339.7802588167674</v>
       </c>
       <c r="H14" t="n">
         <v>60.4462785144178</v>
@@ -5278,52 +5278,52 @@
         <v>96.18097226372217</v>
       </c>
       <c r="J14" t="n">
-        <v>175.7505978015421</v>
+        <v>611.0052852544601</v>
       </c>
       <c r="K14" t="n">
-        <v>923.7732944174624</v>
+        <v>730.2595276380766</v>
       </c>
       <c r="L14" t="n">
-        <v>1071.71872727579</v>
+        <v>878.2049604964046</v>
       </c>
       <c r="M14" t="n">
-        <v>1236.336527363777</v>
+        <v>1042.822760584391</v>
       </c>
       <c r="N14" t="n">
-        <v>1403.618015559798</v>
+        <v>1210.104248780412</v>
       </c>
       <c r="O14" t="n">
-        <v>1567.661779778875</v>
+        <v>1398.507715025819</v>
       </c>
       <c r="P14" t="n">
-        <v>2315.684476394796</v>
+        <v>2146.530411641739</v>
       </c>
       <c r="Q14" t="n">
-        <v>2963.423332455126</v>
+        <v>2794.26926770207</v>
       </c>
       <c r="R14" t="n">
         <v>3022.31392572089</v>
       </c>
       <c r="S14" t="n">
-        <v>3022.31392572089</v>
+        <v>2960.459227134598</v>
       </c>
       <c r="T14" t="n">
-        <v>3022.31392572089</v>
+        <v>2744.579257695789</v>
       </c>
       <c r="U14" t="n">
-        <v>3022.31392572089</v>
+        <v>2485.433478282949</v>
       </c>
       <c r="V14" t="n">
-        <v>3022.31392572089</v>
+        <v>2122.816528216776</v>
       </c>
       <c r="W14" t="n">
-        <v>3022.31392572089</v>
+        <v>1717.961073627809</v>
       </c>
       <c r="X14" t="n">
-        <v>2603.171462300201</v>
+        <v>1298.818610207119</v>
       </c>
       <c r="Y14" t="n">
-        <v>2194.885338599854</v>
+        <v>890.5324865067729</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>60.4462785144178</v>
       </c>
       <c r="I15" t="n">
-        <v>77.71661519010527</v>
+        <v>103.7802883505629</v>
       </c>
       <c r="J15" t="n">
-        <v>125.1077390539249</v>
+        <v>475.7297371805948</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1067180843435</v>
+        <v>912.6806969584999</v>
       </c>
       <c r="L15" t="n">
-        <v>315.0198412856058</v>
+        <v>1021.593820159762</v>
       </c>
       <c r="M15" t="n">
-        <v>442.116318961334</v>
+        <v>1148.69029783549</v>
       </c>
       <c r="N15" t="n">
-        <v>572.5766622137661</v>
+        <v>1279.150641087922</v>
       </c>
       <c r="O15" t="n">
-        <v>691.9223887928767</v>
+        <v>1398.496367667033</v>
       </c>
       <c r="P15" t="n">
-        <v>953.5428963198088</v>
+        <v>1494.281834951884</v>
       </c>
       <c r="Q15" t="n">
         <v>1558.311883182357</v>
@@ -5436,13 +5436,13 @@
         <v>60.4462785144178</v>
       </c>
       <c r="J16" t="n">
-        <v>105.064754971229</v>
+        <v>176.7576318061685</v>
       </c>
       <c r="K16" t="n">
-        <v>428.6814734826806</v>
+        <v>500.3743503176201</v>
       </c>
       <c r="L16" t="n">
-        <v>909.4131117827174</v>
+        <v>981.1059886176569</v>
       </c>
       <c r="M16" t="n">
         <v>1434.817405029582</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1796.140710589047</v>
+        <v>1084.968340049641</v>
       </c>
       <c r="C17" t="n">
-        <v>1357.99823777247</v>
+        <v>1084.968340049641</v>
       </c>
       <c r="D17" t="n">
-        <v>922.0884529469149</v>
+        <v>1084.968340049641</v>
       </c>
       <c r="E17" t="n">
-        <v>488.31370810521</v>
+        <v>1084.968340049641</v>
       </c>
       <c r="F17" t="n">
-        <v>60.4462785144178</v>
+        <v>740.2215493167128</v>
       </c>
       <c r="G17" t="n">
-        <v>60.4462785144178</v>
+        <v>339.7802588167674</v>
       </c>
       <c r="H17" t="n">
         <v>60.4462785144178</v>
@@ -5515,52 +5515,52 @@
         <v>96.18097226372217</v>
       </c>
       <c r="J17" t="n">
-        <v>175.7505978015421</v>
+        <v>611.0052852544601</v>
       </c>
       <c r="K17" t="n">
-        <v>923.7732944174624</v>
+        <v>730.2595276380766</v>
       </c>
       <c r="L17" t="n">
-        <v>1656.769106429692</v>
+        <v>878.2049604964046</v>
       </c>
       <c r="M17" t="n">
-        <v>1821.386906517678</v>
+        <v>1042.822760584391</v>
       </c>
       <c r="N17" t="n">
-        <v>2569.409603133598</v>
+        <v>1263.693221564997</v>
       </c>
       <c r="O17" t="n">
-        <v>2727.368768892568</v>
+        <v>2011.715918180917</v>
       </c>
       <c r="P17" t="n">
-        <v>2862.18326235339</v>
+        <v>2146.530411641739</v>
       </c>
       <c r="Q17" t="n">
-        <v>2963.423332455126</v>
+        <v>2794.26926770207</v>
       </c>
       <c r="R17" t="n">
         <v>3022.31392572089</v>
       </c>
       <c r="S17" t="n">
-        <v>3022.31392572089</v>
+        <v>2960.459227134598</v>
       </c>
       <c r="T17" t="n">
-        <v>2806.433956282081</v>
+        <v>2960.459227134598</v>
       </c>
       <c r="U17" t="n">
-        <v>2806.433956282081</v>
+        <v>2701.313447721758</v>
       </c>
       <c r="V17" t="n">
-        <v>2806.433956282081</v>
+        <v>2338.696497655585</v>
       </c>
       <c r="W17" t="n">
-        <v>2806.433956282081</v>
+        <v>2338.696497655585</v>
       </c>
       <c r="X17" t="n">
-        <v>2387.291492861391</v>
+        <v>1919.554034234895</v>
       </c>
       <c r="Y17" t="n">
-        <v>2222.440281073955</v>
+        <v>1511.267910534549</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>77.71661519010527</v>
       </c>
       <c r="J18" t="n">
-        <v>125.1077390539249</v>
+        <v>290.9427792960058</v>
       </c>
       <c r="K18" t="n">
-        <v>873.130435669845</v>
+        <v>371.9417583264244</v>
       </c>
       <c r="L18" t="n">
-        <v>982.0435588711074</v>
+        <v>480.8548815276866</v>
       </c>
       <c r="M18" t="n">
-        <v>1109.140036546836</v>
+        <v>607.9513592034148</v>
       </c>
       <c r="N18" t="n">
-        <v>1239.600379799268</v>
+        <v>738.4117024558469</v>
       </c>
       <c r="O18" t="n">
-        <v>1358.946106378378</v>
+        <v>857.7574290349577</v>
       </c>
       <c r="P18" t="n">
-        <v>1454.73157366323</v>
+        <v>953.5428963198088</v>
       </c>
       <c r="Q18" t="n">
-        <v>1675.484661276697</v>
+        <v>1558.311883182357</v>
       </c>
       <c r="R18" t="n">
         <v>1706.628468408038</v>
@@ -5673,25 +5673,25 @@
         <v>60.4462785144178</v>
       </c>
       <c r="J19" t="n">
-        <v>105.064754971229</v>
+        <v>176.7576318061685</v>
       </c>
       <c r="K19" t="n">
-        <v>428.6814734826806</v>
+        <v>500.3743503176201</v>
       </c>
       <c r="L19" t="n">
-        <v>909.4131117827174</v>
+        <v>981.1059886176569</v>
       </c>
       <c r="M19" t="n">
-        <v>1434.817405029582</v>
+        <v>1506.510281864522</v>
       </c>
       <c r="N19" t="n">
-        <v>1941.429193860728</v>
+        <v>2013.122070695668</v>
       </c>
       <c r="O19" t="n">
-        <v>2420.538841188546</v>
+        <v>2492.231718023486</v>
       </c>
       <c r="P19" t="n">
-        <v>2818.907264381264</v>
+        <v>2890.600141216204</v>
       </c>
       <c r="Q19" t="n">
         <v>3022.31392572089</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1768.585768114946</v>
+        <v>2178.699813647735</v>
       </c>
       <c r="C20" t="n">
-        <v>1330.44329529837</v>
+        <v>1758.439528272416</v>
       </c>
       <c r="D20" t="n">
-        <v>894.5335104728142</v>
+        <v>1322.52974344686</v>
       </c>
       <c r="E20" t="n">
-        <v>460.7587656311094</v>
+        <v>888.7549986051554</v>
       </c>
       <c r="F20" t="n">
-        <v>60.4462785144178</v>
+        <v>460.8875690143631</v>
       </c>
       <c r="G20" t="n">
         <v>60.4462785144178</v>
@@ -5752,52 +5752,52 @@
         <v>96.18097226372217</v>
       </c>
       <c r="J20" t="n">
-        <v>175.7505978015421</v>
+        <v>611.0052852544601</v>
       </c>
       <c r="K20" t="n">
-        <v>295.0048401851586</v>
+        <v>1359.02798187038</v>
       </c>
       <c r="L20" t="n">
-        <v>442.9502730434867</v>
+        <v>1506.973414728708</v>
       </c>
       <c r="M20" t="n">
-        <v>607.5680731314731</v>
+        <v>1671.591214816695</v>
       </c>
       <c r="N20" t="n">
-        <v>774.8495613274943</v>
+        <v>1838.872703012716</v>
       </c>
       <c r="O20" t="n">
-        <v>1522.872257943415</v>
+        <v>1996.831868771686</v>
       </c>
       <c r="P20" t="n">
-        <v>2146.530411641739</v>
+        <v>2315.684476394796</v>
       </c>
       <c r="Q20" t="n">
-        <v>2794.26926770207</v>
+        <v>2963.423332455126</v>
       </c>
       <c r="R20" t="n">
         <v>3022.31392572089</v>
       </c>
       <c r="S20" t="n">
-        <v>3022.31392572089</v>
+        <v>2960.459227134598</v>
       </c>
       <c r="T20" t="n">
-        <v>3022.31392572089</v>
+        <v>2960.459227134598</v>
       </c>
       <c r="U20" t="n">
-        <v>3022.31392572089</v>
+        <v>2960.459227134598</v>
       </c>
       <c r="V20" t="n">
-        <v>3022.31392572089</v>
+        <v>2597.842277068425</v>
       </c>
       <c r="W20" t="n">
-        <v>3022.31392572089</v>
+        <v>2597.842277068425</v>
       </c>
       <c r="X20" t="n">
-        <v>2603.171462300201</v>
+        <v>2178.699813647735</v>
       </c>
       <c r="Y20" t="n">
-        <v>2194.885338599854</v>
+        <v>2178.699813647735</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>60.4462785144178</v>
       </c>
       <c r="I21" t="n">
-        <v>77.71661519010527</v>
+        <v>103.7802883505629</v>
       </c>
       <c r="J21" t="n">
-        <v>449.6660640201372</v>
+        <v>475.7297371805948</v>
       </c>
       <c r="K21" t="n">
-        <v>530.6650430505558</v>
+        <v>912.6806969584999</v>
       </c>
       <c r="L21" t="n">
-        <v>1138.766598254102</v>
+        <v>1021.593820159762</v>
       </c>
       <c r="M21" t="n">
-        <v>1265.86307592983</v>
+        <v>1148.69029783549</v>
       </c>
       <c r="N21" t="n">
-        <v>1396.323419182262</v>
+        <v>1279.150641087922</v>
       </c>
       <c r="O21" t="n">
-        <v>1515.669145761373</v>
+        <v>1398.496367667033</v>
       </c>
       <c r="P21" t="n">
-        <v>1611.454613046224</v>
+        <v>1494.281834951884</v>
       </c>
       <c r="Q21" t="n">
-        <v>1675.484661276697</v>
+        <v>1558.311883182357</v>
       </c>
       <c r="R21" t="n">
         <v>1706.628468408038</v>
@@ -5910,22 +5910,22 @@
         <v>60.4462785144178</v>
       </c>
       <c r="J22" t="n">
-        <v>105.064754971229</v>
+        <v>176.7576318061685</v>
       </c>
       <c r="K22" t="n">
-        <v>428.6814734826806</v>
+        <v>500.3743503176201</v>
       </c>
       <c r="L22" t="n">
-        <v>909.4131117827174</v>
+        <v>981.1059886176569</v>
       </c>
       <c r="M22" t="n">
-        <v>1434.817405029582</v>
+        <v>1506.510281864522</v>
       </c>
       <c r="N22" t="n">
-        <v>1941.429193860728</v>
+        <v>2013.122070695668</v>
       </c>
       <c r="O22" t="n">
-        <v>2420.538841188546</v>
+        <v>2492.231718023486</v>
       </c>
       <c r="P22" t="n">
         <v>2818.907264381264</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2516.970737827454</v>
+        <v>2516.970737827453</v>
       </c>
       <c r="C23" t="n">
-        <v>2078.828265010877</v>
+        <v>2078.828265010876</v>
       </c>
       <c r="D23" t="n">
-        <v>1642.918480185322</v>
+        <v>1642.918480185321</v>
       </c>
       <c r="E23" t="n">
-        <v>1209.143735343617</v>
+        <v>1209.143735343616</v>
       </c>
       <c r="F23" t="n">
-        <v>781.2763057528246</v>
+        <v>781.2763057528236</v>
       </c>
       <c r="G23" t="n">
-        <v>380.8350152528792</v>
+        <v>380.8350152528791</v>
       </c>
       <c r="H23" t="n">
         <v>101.5010349505296</v>
       </c>
       <c r="I23" t="n">
-        <v>137.235728699834</v>
+        <v>137.2357286998339</v>
       </c>
       <c r="J23" t="n">
-        <v>216.8053542376539</v>
+        <v>652.0600416905719</v>
       </c>
       <c r="K23" t="n">
-        <v>336.0595966212704</v>
+        <v>1605.664576032366</v>
       </c>
       <c r="L23" t="n">
-        <v>1559.064995732458</v>
+        <v>2746.285411110131</v>
       </c>
       <c r="M23" t="n">
-        <v>1723.682795820444</v>
+        <v>2910.903211198117</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.758103333248</v>
+        <v>3078.184699394139</v>
       </c>
       <c r="O23" t="n">
-        <v>4117.896935662525</v>
+        <v>3236.143865153108</v>
       </c>
       <c r="P23" t="n">
-        <v>4914.921084158979</v>
+        <v>4199.268233447327</v>
       </c>
       <c r="Q23" t="n">
-        <v>5016.161154260716</v>
+        <v>4847.007089507659</v>
       </c>
       <c r="R23" t="n">
-        <v>5075.05174752648</v>
+        <v>5075.051747526479</v>
       </c>
       <c r="S23" t="n">
         <v>5013.197048940187</v>
       </c>
       <c r="T23" t="n">
-        <v>4797.317079501378</v>
+        <v>4797.317079501377</v>
       </c>
       <c r="U23" t="n">
         <v>4538.171300088537</v>
       </c>
       <c r="V23" t="n">
-        <v>4175.554350022364</v>
+        <v>4175.554350022363</v>
       </c>
       <c r="W23" t="n">
         <v>3770.698895433397</v>
       </c>
       <c r="X23" t="n">
-        <v>3351.556432012708</v>
+        <v>3351.556432012707</v>
       </c>
       <c r="Y23" t="n">
-        <v>2943.270308312362</v>
+        <v>2943.270308312361</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>101.5010349505296</v>
       </c>
       <c r="I24" t="n">
-        <v>118.7713716262171</v>
+        <v>144.8350447866747</v>
       </c>
       <c r="J24" t="n">
-        <v>166.1624954900367</v>
+        <v>516.7844936167066</v>
       </c>
       <c r="K24" t="n">
-        <v>247.1614745204554</v>
+        <v>953.7354533946116</v>
       </c>
       <c r="L24" t="n">
-        <v>1179.821354690214</v>
+        <v>1062.648576595874</v>
       </c>
       <c r="M24" t="n">
-        <v>1306.917832365942</v>
+        <v>1189.745054271602</v>
       </c>
       <c r="N24" t="n">
-        <v>1437.378175618374</v>
+        <v>1320.205397524034</v>
       </c>
       <c r="O24" t="n">
-        <v>1556.723902197485</v>
+        <v>1439.551124103145</v>
       </c>
       <c r="P24" t="n">
-        <v>1652.509369482336</v>
+        <v>1535.336591387996</v>
       </c>
       <c r="Q24" t="n">
-        <v>1716.539417712808</v>
+        <v>1599.366639618469</v>
       </c>
       <c r="R24" t="n">
         <v>1747.68322484415</v>
@@ -6141,7 +6141,7 @@
         <v>313.3449800963982</v>
       </c>
       <c r="H25" t="n">
-        <v>177.2576397728954</v>
+        <v>177.2576397728953</v>
       </c>
       <c r="I25" t="n">
         <v>101.5010349505296</v>
@@ -6156,16 +6156,16 @@
         <v>1022.160745053769</v>
       </c>
       <c r="M25" t="n">
-        <v>1547.565038300634</v>
+        <v>1475.872161465694</v>
       </c>
       <c r="N25" t="n">
-        <v>2054.17682713178</v>
+        <v>1982.48395029684</v>
       </c>
       <c r="O25" t="n">
-        <v>2533.286474459598</v>
+        <v>2461.593597624658</v>
       </c>
       <c r="P25" t="n">
-        <v>2931.654897652316</v>
+        <v>2859.962020817376</v>
       </c>
       <c r="Q25" t="n">
         <v>3063.368682157002</v>
@@ -6217,7 +6217,7 @@
         <v>781.2763057528246</v>
       </c>
       <c r="G26" t="n">
-        <v>380.8350152528793</v>
+        <v>380.8350152528792</v>
       </c>
       <c r="H26" t="n">
         <v>101.5010349505296</v>
@@ -6226,19 +6226,19 @@
         <v>137.235728699834</v>
       </c>
       <c r="J26" t="n">
-        <v>216.8053542376539</v>
+        <v>652.0600416905719</v>
       </c>
       <c r="K26" t="n">
-        <v>1170.409888579449</v>
+        <v>1605.664576032366</v>
       </c>
       <c r="L26" t="n">
-        <v>1318.355321437776</v>
+        <v>2746.285411110133</v>
       </c>
       <c r="M26" t="n">
-        <v>1482.973121525763</v>
+        <v>2910.903211198119</v>
       </c>
       <c r="N26" t="n">
-        <v>2098.005032823834</v>
+        <v>3078.18469939414</v>
       </c>
       <c r="O26" t="n">
         <v>3236.14386515311</v>
@@ -6302,31 +6302,31 @@
         <v>101.5010349505296</v>
       </c>
       <c r="I27" t="n">
-        <v>118.7713716262171</v>
+        <v>144.8350447866747</v>
       </c>
       <c r="J27" t="n">
-        <v>166.1624954900367</v>
+        <v>516.7844936167066</v>
       </c>
       <c r="K27" t="n">
-        <v>247.1614745204554</v>
+        <v>597.7834726471252</v>
       </c>
       <c r="L27" t="n">
-        <v>356.0745977217176</v>
+        <v>706.6965958483876</v>
       </c>
       <c r="M27" t="n">
-        <v>483.1710753974457</v>
+        <v>833.7930735241156</v>
       </c>
       <c r="N27" t="n">
-        <v>1437.378175618374</v>
+        <v>964.2534167765477</v>
       </c>
       <c r="O27" t="n">
-        <v>1556.723902197485</v>
+        <v>1083.599143355658</v>
       </c>
       <c r="P27" t="n">
-        <v>1652.509369482336</v>
+        <v>1179.38461064051</v>
       </c>
       <c r="Q27" t="n">
-        <v>1716.539417712808</v>
+        <v>1599.366639618469</v>
       </c>
       <c r="R27" t="n">
         <v>1747.68322484415</v>
@@ -6384,16 +6384,16 @@
         <v>101.5010349505296</v>
       </c>
       <c r="J28" t="n">
-        <v>146.1195114073413</v>
+        <v>217.8123882422803</v>
       </c>
       <c r="K28" t="n">
-        <v>469.7362299187929</v>
+        <v>469.7362299187925</v>
       </c>
       <c r="L28" t="n">
-        <v>950.4678682188297</v>
+        <v>950.4678682188293</v>
       </c>
       <c r="M28" t="n">
-        <v>1475.872161465695</v>
+        <v>1475.872161465694</v>
       </c>
       <c r="N28" t="n">
         <v>1982.48395029684</v>
@@ -6469,22 +6469,22 @@
         <v>1605.664576032366</v>
       </c>
       <c r="L29" t="n">
-        <v>1935.259809292882</v>
+        <v>1753.610008890694</v>
       </c>
       <c r="M29" t="n">
-        <v>2099.877609380869</v>
+        <v>1918.227808978681</v>
       </c>
       <c r="N29" t="n">
-        <v>2267.15909757689</v>
+        <v>2098.005032823834</v>
       </c>
       <c r="O29" t="n">
-        <v>3405.297929906166</v>
+        <v>3236.14386515311</v>
       </c>
       <c r="P29" t="n">
-        <v>4368.422298200384</v>
+        <v>4199.268233447328</v>
       </c>
       <c r="Q29" t="n">
-        <v>5016.161154260716</v>
+        <v>4847.00708950766</v>
       </c>
       <c r="R29" t="n">
         <v>5075.05174752648</v>
@@ -6539,31 +6539,31 @@
         <v>101.5010349505296</v>
       </c>
       <c r="I30" t="n">
-        <v>118.7713716262171</v>
+        <v>144.8350447866747</v>
       </c>
       <c r="J30" t="n">
-        <v>449.1703138264571</v>
+        <v>516.7844936167066</v>
       </c>
       <c r="K30" t="n">
-        <v>530.1692928568757</v>
+        <v>953.7354533946116</v>
       </c>
       <c r="L30" t="n">
-        <v>639.0824160581381</v>
+        <v>1062.648576595874</v>
       </c>
       <c r="M30" t="n">
-        <v>766.1788937338662</v>
+        <v>1189.745054271602</v>
       </c>
       <c r="N30" t="n">
-        <v>896.6392369862983</v>
+        <v>1320.205397524034</v>
       </c>
       <c r="O30" t="n">
-        <v>1015.984963565409</v>
+        <v>1439.551124103145</v>
       </c>
       <c r="P30" t="n">
-        <v>1111.77043085026</v>
+        <v>1535.336591387996</v>
       </c>
       <c r="Q30" t="n">
-        <v>1716.539417712808</v>
+        <v>1599.366639618469</v>
       </c>
       <c r="R30" t="n">
         <v>1747.68322484415</v>
@@ -6624,10 +6624,10 @@
         <v>217.8123882422803</v>
       </c>
       <c r="K31" t="n">
-        <v>469.7362299187925</v>
+        <v>541.4291067537318</v>
       </c>
       <c r="L31" t="n">
-        <v>950.4678682188293</v>
+        <v>1022.160745053769</v>
       </c>
       <c r="M31" t="n">
         <v>1475.872161465694</v>
@@ -6688,7 +6688,7 @@
         <v>1209.143735343617</v>
       </c>
       <c r="F32" t="n">
-        <v>781.2763057528246</v>
+        <v>781.2763057528244</v>
       </c>
       <c r="G32" t="n">
         <v>380.8350152528792</v>
@@ -6706,7 +6706,7 @@
         <v>1605.664576032366</v>
       </c>
       <c r="L32" t="n">
-        <v>2746.285411110132</v>
+        <v>2746.285411110133</v>
       </c>
       <c r="M32" t="n">
         <v>2910.903211198119</v>
@@ -6718,7 +6718,7 @@
         <v>3236.14386515311</v>
       </c>
       <c r="P32" t="n">
-        <v>4199.268233447327</v>
+        <v>4199.268233447328</v>
       </c>
       <c r="Q32" t="n">
         <v>4847.00708950766</v>
@@ -6776,31 +6776,31 @@
         <v>101.5010349505296</v>
       </c>
       <c r="I33" t="n">
-        <v>118.7713716262171</v>
+        <v>144.8350447866747</v>
       </c>
       <c r="J33" t="n">
-        <v>449.1703138264571</v>
+        <v>516.7844936167066</v>
       </c>
       <c r="K33" t="n">
-        <v>530.1692928568757</v>
+        <v>597.7834726471252</v>
       </c>
       <c r="L33" t="n">
-        <v>639.0824160581381</v>
+        <v>706.6965958483876</v>
       </c>
       <c r="M33" t="n">
-        <v>766.1788937338662</v>
+        <v>833.7930735241156</v>
       </c>
       <c r="N33" t="n">
-        <v>896.6392369862983</v>
+        <v>964.2534167765477</v>
       </c>
       <c r="O33" t="n">
-        <v>1015.984963565409</v>
+        <v>1083.599143355658</v>
       </c>
       <c r="P33" t="n">
-        <v>1111.77043085026</v>
+        <v>1179.38461064051</v>
       </c>
       <c r="Q33" t="n">
-        <v>1716.539417712808</v>
+        <v>1599.366639618469</v>
       </c>
       <c r="R33" t="n">
         <v>1747.68322484415</v>
@@ -6858,25 +6858,25 @@
         <v>101.5010349505296</v>
       </c>
       <c r="J34" t="n">
-        <v>146.1195114073409</v>
+        <v>217.8123882422803</v>
       </c>
       <c r="K34" t="n">
-        <v>469.7362299187925</v>
+        <v>541.4291067537318</v>
       </c>
       <c r="L34" t="n">
-        <v>950.4678682188293</v>
+        <v>1022.160745053769</v>
       </c>
       <c r="M34" t="n">
-        <v>1475.872161465694</v>
+        <v>1547.565038300634</v>
       </c>
       <c r="N34" t="n">
-        <v>1982.48395029684</v>
+        <v>2054.17682713178</v>
       </c>
       <c r="O34" t="n">
-        <v>2461.593597624658</v>
+        <v>2533.286474459598</v>
       </c>
       <c r="P34" t="n">
-        <v>2859.962020817376</v>
+        <v>2931.654897652316</v>
       </c>
       <c r="Q34" t="n">
         <v>3063.368682157002</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2071.721445627598</v>
+        <v>2490.468127914644</v>
       </c>
       <c r="C35" t="n">
-        <v>1633.578972811021</v>
+        <v>2052.325655098068</v>
       </c>
       <c r="D35" t="n">
-        <v>1197.669187985466</v>
+        <v>1616.415870272512</v>
       </c>
       <c r="E35" t="n">
         <v>1182.641125430807</v>
@@ -6937,25 +6937,25 @@
         <v>110.7331187870245</v>
       </c>
       <c r="J35" t="n">
-        <v>190.3027443248445</v>
+        <v>625.5574317777624</v>
       </c>
       <c r="K35" t="n">
-        <v>309.556986708461</v>
+        <v>744.8116741613788</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.662496550248</v>
+        <v>892.7571070197071</v>
       </c>
       <c r="M35" t="n">
-        <v>2165.768006392034</v>
+        <v>1057.374907107693</v>
       </c>
       <c r="N35" t="n">
-        <v>3093.873516233821</v>
+        <v>1224.656395303715</v>
       </c>
       <c r="O35" t="n">
-        <v>3251.832681992791</v>
+        <v>1946.032227965069</v>
       </c>
       <c r="P35" t="n">
-        <v>3386.647175453612</v>
+        <v>2874.137737806856</v>
       </c>
       <c r="Q35" t="n">
         <v>3521.876593867186</v>
@@ -6964,25 +6964,25 @@
         <v>3749.921251886007</v>
       </c>
       <c r="S35" t="n">
-        <v>3688.066553299715</v>
+        <v>3749.921251886007</v>
       </c>
       <c r="T35" t="n">
-        <v>3688.066553299715</v>
+        <v>3534.041282447197</v>
       </c>
       <c r="U35" t="n">
-        <v>3688.066553299715</v>
+        <v>3274.895503034358</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.449603233541</v>
+        <v>3274.895503034358</v>
       </c>
       <c r="W35" t="n">
-        <v>3325.449603233541</v>
+        <v>2916.767698399552</v>
       </c>
       <c r="X35" t="n">
-        <v>2906.307139812852</v>
+        <v>2916.767698399552</v>
       </c>
       <c r="Y35" t="n">
-        <v>2498.021016112506</v>
+        <v>2916.767698399552</v>
       </c>
     </row>
     <row r="36">
@@ -7101,19 +7101,19 @@
         <v>514.9264968409224</v>
       </c>
       <c r="L37" t="n">
-        <v>995.6581351409592</v>
+        <v>923.9652583060198</v>
       </c>
       <c r="M37" t="n">
-        <v>1521.062428387824</v>
+        <v>1449.369551552885</v>
       </c>
       <c r="N37" t="n">
-        <v>2027.674217218969</v>
+        <v>1955.98134038403</v>
       </c>
       <c r="O37" t="n">
-        <v>2506.783864546788</v>
+        <v>2435.090987711849</v>
       </c>
       <c r="P37" t="n">
-        <v>2905.152287739506</v>
+        <v>2833.459410904567</v>
       </c>
       <c r="Q37" t="n">
         <v>3036.866072244192</v>
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2490.468127914644</v>
+        <v>1658.550395362241</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.325655098068</v>
+        <v>1220.407922545664</v>
       </c>
       <c r="D38" t="n">
-        <v>1616.415870272512</v>
+        <v>1188.54844068172</v>
       </c>
       <c r="E38" t="n">
-        <v>1182.641125430807</v>
+        <v>754.7736958400151</v>
       </c>
       <c r="F38" t="n">
         <v>754.7736958400151</v>
@@ -7183,43 +7183,43 @@
         <v>1237.662496550248</v>
       </c>
       <c r="M38" t="n">
-        <v>2165.768006392034</v>
+        <v>1402.280296638234</v>
       </c>
       <c r="N38" t="n">
-        <v>3093.873516233821</v>
+        <v>1569.561784834255</v>
       </c>
       <c r="O38" t="n">
-        <v>3454.976095057685</v>
+        <v>2497.667294676042</v>
       </c>
       <c r="P38" t="n">
-        <v>3589.790588518507</v>
+        <v>3420.63652376545</v>
       </c>
       <c r="Q38" t="n">
-        <v>3691.030658620243</v>
+        <v>3521.876593867186</v>
       </c>
       <c r="R38" t="n">
         <v>3749.921251886007</v>
       </c>
       <c r="S38" t="n">
-        <v>3688.066553299715</v>
+        <v>3749.921251886007</v>
       </c>
       <c r="T38" t="n">
-        <v>3688.066553299715</v>
+        <v>3534.041282447197</v>
       </c>
       <c r="U38" t="n">
-        <v>3688.066553299715</v>
+        <v>3274.895503034358</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.449603233541</v>
+        <v>2912.278552968184</v>
       </c>
       <c r="W38" t="n">
-        <v>3325.449603233541</v>
+        <v>2912.278552968184</v>
       </c>
       <c r="X38" t="n">
-        <v>3325.053822099899</v>
+        <v>2493.136089547495</v>
       </c>
       <c r="Y38" t="n">
-        <v>2916.767698399552</v>
+        <v>2084.849965847148</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2604.456155193706</v>
+        <v>575.7155182390395</v>
       </c>
       <c r="C39" t="n">
-        <v>2497.999694030348</v>
+        <v>469.2590570756818</v>
       </c>
       <c r="D39" t="n">
-        <v>2402.909405176901</v>
+        <v>374.1687682222351</v>
       </c>
       <c r="E39" t="n">
-        <v>2308.788990503855</v>
+        <v>280.0483535491888</v>
       </c>
       <c r="F39" t="n">
-        <v>2225.405152120017</v>
+        <v>196.6645151653504</v>
       </c>
       <c r="G39" t="n">
-        <v>2140.531856875136</v>
+        <v>111.79121992047</v>
       </c>
       <c r="H39" t="n">
-        <v>2103.739061992386</v>
+        <v>74.99842503772014</v>
       </c>
       <c r="I39" t="n">
-        <v>2121.009398668074</v>
+        <v>92.26876171340763</v>
       </c>
       <c r="J39" t="n">
-        <v>2451.408340868314</v>
+        <v>464.2182105434395</v>
       </c>
       <c r="K39" t="n">
-        <v>2532.407319898733</v>
+        <v>545.2171895738581</v>
       </c>
       <c r="L39" t="n">
-        <v>2641.320443099995</v>
+        <v>654.1303127751205</v>
       </c>
       <c r="M39" t="n">
-        <v>2768.416920775724</v>
+        <v>781.2267904508486</v>
       </c>
       <c r="N39" t="n">
-        <v>2898.877264028155</v>
+        <v>911.6871337032808</v>
       </c>
       <c r="O39" t="n">
-        <v>3018.222990607266</v>
+        <v>1031.032860282392</v>
       </c>
       <c r="P39" t="n">
-        <v>3114.008457892117</v>
+        <v>1126.818327567243</v>
       </c>
       <c r="Q39" t="n">
-        <v>3718.777444754665</v>
+        <v>1690.036807799999</v>
       </c>
       <c r="R39" t="n">
-        <v>3749.921251886007</v>
+        <v>1721.180614931341</v>
       </c>
       <c r="S39" t="n">
-        <v>3695.972172495105</v>
+        <v>1667.231535540439</v>
       </c>
       <c r="T39" t="n">
-        <v>3567.856419770145</v>
+        <v>1539.115782815479</v>
       </c>
       <c r="U39" t="n">
-        <v>3391.553543460175</v>
+        <v>1362.812906505509</v>
       </c>
       <c r="V39" t="n">
-        <v>3192.436025522174</v>
+        <v>1163.695388567508</v>
       </c>
       <c r="W39" t="n">
-        <v>3007.113271255368</v>
+        <v>978.372634300702</v>
       </c>
       <c r="X39" t="n">
-        <v>2852.245835494248</v>
+        <v>823.5051985395819</v>
       </c>
       <c r="Y39" t="n">
-        <v>2725.760056273469</v>
+        <v>697.0194193188026</v>
       </c>
     </row>
     <row r="40">
@@ -7332,25 +7332,25 @@
         <v>74.99842503772014</v>
       </c>
       <c r="J40" t="n">
-        <v>191.3097783294708</v>
+        <v>119.6169014945314</v>
       </c>
       <c r="K40" t="n">
-        <v>514.9264968409224</v>
+        <v>443.233620005983</v>
       </c>
       <c r="L40" t="n">
-        <v>995.6581351409592</v>
+        <v>923.9652583060198</v>
       </c>
       <c r="M40" t="n">
-        <v>1521.062428387824</v>
+        <v>1449.369551552885</v>
       </c>
       <c r="N40" t="n">
-        <v>2027.674217218969</v>
+        <v>1955.98134038403</v>
       </c>
       <c r="O40" t="n">
-        <v>2506.783864546788</v>
+        <v>2435.090987711849</v>
       </c>
       <c r="P40" t="n">
-        <v>2905.152287739506</v>
+        <v>2833.459410904567</v>
       </c>
       <c r="Q40" t="n">
         <v>3036.866072244192</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1253.694940773274</v>
+        <v>1191.840242186982</v>
       </c>
       <c r="C41" t="n">
-        <v>1188.54844068172</v>
+        <v>753.6977693704052</v>
       </c>
       <c r="D41" t="n">
-        <v>1188.54844068172</v>
+        <v>475.4397155376654</v>
       </c>
       <c r="E41" t="n">
-        <v>754.7736958400151</v>
+        <v>475.4397155376654</v>
       </c>
       <c r="F41" t="n">
-        <v>754.7736958400151</v>
+        <v>475.4397155376654</v>
       </c>
       <c r="G41" t="n">
-        <v>354.3324053400697</v>
+        <v>74.99842503772014</v>
       </c>
       <c r="H41" t="n">
         <v>74.99842503772014</v>
@@ -7417,19 +7417,19 @@
         <v>309.556986708461</v>
       </c>
       <c r="L41" t="n">
-        <v>725.1530589034909</v>
+        <v>457.5024195667891</v>
       </c>
       <c r="M41" t="n">
-        <v>1653.258568745277</v>
+        <v>1385.607929408576</v>
       </c>
       <c r="N41" t="n">
-        <v>2581.364078587064</v>
+        <v>2313.713439250362</v>
       </c>
       <c r="O41" t="n">
-        <v>2739.323244346033</v>
+        <v>2492.531013923664</v>
       </c>
       <c r="P41" t="n">
-        <v>2874.137737806856</v>
+        <v>3420.63652376545</v>
       </c>
       <c r="Q41" t="n">
         <v>3521.876593867186</v>
@@ -7438,25 +7438,25 @@
         <v>3749.921251886007</v>
       </c>
       <c r="S41" t="n">
-        <v>3749.921251886007</v>
+        <v>3688.066553299715</v>
       </c>
       <c r="T41" t="n">
-        <v>3534.041282447197</v>
+        <v>3472.186583860906</v>
       </c>
       <c r="U41" t="n">
-        <v>3274.895503034358</v>
+        <v>3213.040804448066</v>
       </c>
       <c r="V41" t="n">
-        <v>2912.278552968184</v>
+        <v>2850.423854381892</v>
       </c>
       <c r="W41" t="n">
-        <v>2507.423098379218</v>
+        <v>2445.568399792925</v>
       </c>
       <c r="X41" t="n">
-        <v>2088.280634958528</v>
+        <v>2026.425936372236</v>
       </c>
       <c r="Y41" t="n">
-        <v>1679.994511258182</v>
+        <v>1618.13981267189</v>
       </c>
     </row>
     <row r="42">
@@ -7569,25 +7569,25 @@
         <v>74.99842503772014</v>
       </c>
       <c r="J43" t="n">
-        <v>119.6169014945314</v>
+        <v>191.3097783294708</v>
       </c>
       <c r="K43" t="n">
-        <v>443.233620005983</v>
+        <v>514.9264968409224</v>
       </c>
       <c r="L43" t="n">
-        <v>923.9652583060198</v>
+        <v>995.6581351409592</v>
       </c>
       <c r="M43" t="n">
-        <v>1449.369551552885</v>
+        <v>1521.062428387824</v>
       </c>
       <c r="N43" t="n">
-        <v>1955.98134038403</v>
+        <v>2027.674217218969</v>
       </c>
       <c r="O43" t="n">
-        <v>2435.090987711848</v>
+        <v>2506.783864546788</v>
       </c>
       <c r="P43" t="n">
-        <v>2833.459410904567</v>
+        <v>2905.152287739505</v>
       </c>
       <c r="Q43" t="n">
         <v>3036.866072244192</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1191.840242186982</v>
+        <v>2015.838160196638</v>
       </c>
       <c r="C44" t="n">
-        <v>1182.641125430807</v>
+        <v>1577.695687380061</v>
       </c>
       <c r="D44" t="n">
-        <v>1182.641125430807</v>
+        <v>1141.785902554505</v>
       </c>
       <c r="E44" t="n">
-        <v>1182.641125430807</v>
+        <v>708.0111577128005</v>
       </c>
       <c r="F44" t="n">
-        <v>754.7736958400151</v>
+        <v>708.0111577128005</v>
       </c>
       <c r="G44" t="n">
         <v>354.3324053400697</v>
@@ -7648,22 +7648,22 @@
         <v>110.7331187870245</v>
       </c>
       <c r="J44" t="n">
-        <v>190.3027443248445</v>
+        <v>625.5574317777624</v>
       </c>
       <c r="K44" t="n">
-        <v>1118.408254166631</v>
+        <v>1553.662941619549</v>
       </c>
       <c r="L44" t="n">
-        <v>1266.353687024959</v>
+        <v>1701.608374477877</v>
       </c>
       <c r="M44" t="n">
-        <v>1430.971487112945</v>
+        <v>1866.226174565863</v>
       </c>
       <c r="N44" t="n">
-        <v>1598.252975308967</v>
+        <v>2033.507662761885</v>
       </c>
       <c r="O44" t="n">
-        <v>1946.032227965069</v>
+        <v>2191.466828520855</v>
       </c>
       <c r="P44" t="n">
         <v>2874.137737806856</v>
@@ -7687,13 +7687,13 @@
         <v>2850.423854381892</v>
       </c>
       <c r="W44" t="n">
-        <v>2445.568399792925</v>
+        <v>2850.423854381892</v>
       </c>
       <c r="X44" t="n">
-        <v>2026.425936372236</v>
+        <v>2850.423854381892</v>
       </c>
       <c r="Y44" t="n">
-        <v>1618.13981267189</v>
+        <v>2442.137730681545</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>92.26876171340763</v>
       </c>
       <c r="J45" t="n">
-        <v>422.6677039136478</v>
+        <v>464.2182105434395</v>
       </c>
       <c r="K45" t="n">
-        <v>503.6666829440665</v>
+        <v>545.2171895738581</v>
       </c>
       <c r="L45" t="n">
-        <v>612.5798061453287</v>
+        <v>654.1303127751205</v>
       </c>
       <c r="M45" t="n">
-        <v>739.6762838210569</v>
+        <v>781.2267904508486</v>
       </c>
       <c r="N45" t="n">
-        <v>870.1366270734891</v>
+        <v>911.6871337032808</v>
       </c>
       <c r="O45" t="n">
-        <v>989.4823536525997</v>
+        <v>1031.032860282392</v>
       </c>
       <c r="P45" t="n">
-        <v>1085.267820937451</v>
+        <v>1126.818327567243</v>
       </c>
       <c r="Q45" t="n">
         <v>1690.036807799999</v>
@@ -7824,7 +7824,7 @@
         <v>2506.783864546788</v>
       </c>
       <c r="P46" t="n">
-        <v>2905.152287739506</v>
+        <v>2905.152287739505</v>
       </c>
       <c r="Q46" t="n">
         <v>3036.866072244192</v>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8002,7 +8002,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8142,19 +8142,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P4" t="n">
-        <v>298.4303698644312</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="P6" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>52.98895607821123</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8379,19 +8379,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>298.4303698644312</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>236.2898988798406</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8610,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>635.1196507397008</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8704,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>454.6855927900494</v>
+        <v>30.75181867316815</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>619.4022254091901</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>285.8664831681015</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>504.2307393962462</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>15.03718013106097</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>205.1167451880769</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>635.1196507397008</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>6.14605905061353</v>
+        <v>30.75181867316815</v>
       </c>
       <c r="P14" t="n">
-        <v>619.4022254091904</v>
+        <v>619.4022254091901</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>359.5474553004914</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>167.5101416586675</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.03718013106097</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -9093,7 +9093,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>391.708071056539</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>635.1196507397008</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>590.959978943335</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>586.6072812322209</v>
+        <v>54.13027553998427</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>596.023768542374</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>167.5101416586676</v>
       </c>
       <c r="K18" t="n">
-        <v>673.761330894446</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.3061003868631</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>15.03718013106095</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>97.47464447413358</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>635.1196507397008</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>596.0237685423742</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>493.7814749873764</v>
+        <v>185.8970850124119</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>359.5474553004914</v>
       </c>
       <c r="L21" t="n">
-        <v>504.2307393962462</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>15.03718013106095</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9576,7 +9576,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>278.6000173084867</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>1002.702426484279</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1099.791736683619</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>668.8986414501342</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>359.5474553004913</v>
       </c>
       <c r="L24" t="n">
-        <v>832.067431281309</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9804,7 +9804,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>391.708071056539</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.47464447413404</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1002.702426484281</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>452.2731546485354</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>832.067431281309</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>359.5474553004913</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>15.03718013106153</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>205.1167451880769</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10117,13 +10117,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>183.4846468708969</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>12.62195520114346</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>285.8664831681014</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>359.5474553004913</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>205.1167451880769</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>391.708071056539</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>285.8664831681014</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>359.5474553004913</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>15.03718013106104</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>97.47464447413404</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>788.0404818014733</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>771.1997068220205</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>768.5091127735</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>569.1077443458428</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>801.3040569504694</v>
       </c>
       <c r="Q35" t="n">
-        <v>34.33267506246239</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10749,7 +10749,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>350.0171767000219</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645587</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.47464447413392</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10831,22 +10831,22 @@
         <v>788.0404818014733</v>
       </c>
       <c r="M38" t="n">
-        <v>771.1997068220205</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>768.5091127735</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>205.1953667322168</v>
+        <v>777.9256000836531</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>796.11589457433</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>285.8664831681017</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>504.2307393962462</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>15.03718013106101</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.47464447413392</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11065,22 +11065,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>270.3541811481837</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>771.1997068220205</v>
       </c>
       <c r="N41" t="n">
-        <v>768.5091127735002</v>
+        <v>768.5091127735004</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>21.06909991346629</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>801.3040569504692</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>15.03718013106104</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11238,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>97.47464447413449</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>817.0214822809799</v>
+        <v>817.02148228098</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>191.7374615122549</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>801.3040569504694</v>
+        <v>553.3903190153324</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>285.8664831681016</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>504.2307393962462</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.47464447413392</v>
+        <v>97.47464447413449</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>271.6884742740054</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>396.4368775949458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>276.5406404993261</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>61.23615160042885</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.7211697444214</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>220.7879204535244</v>
+        <v>256.5543216187114</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>284.9532202702514</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>27.27939304935967</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>396.4368775949458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>276.5406404993261</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>61.23615160042885</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>213.7211697444214</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5543216187114</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>82.28943246928537</v>
       </c>
       <c r="G17" t="n">
-        <v>396.4368775949458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>276.5406404993261</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>61.23615160042885</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.7211697444214</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5543216187114</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0005627937809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>17.70336556684447</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>27.27939304935967</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>396.4368775949458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>276.5406404993261</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>61.23615160042885</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>213.7211697444214</v>
@@ -24028,7 +24028,7 @@
         <v>256.5543216187114</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>414.559215464176</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>61.23615160042885</v>
       </c>
       <c r="T35" t="n">
-        <v>213.7211697444214</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5543216187114</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>46.26037345461941</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25396,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.0097999319954</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>61.23615160042885</v>
       </c>
       <c r="T38" t="n">
-        <v>213.7211697444214</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5543216187114</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.5592154641761</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>369.2660129977723</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>156.0752136828875</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>276.5406404993261</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>61.23615160042885</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>424.6539224997981</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>46.29491274594244</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="C2" t="n">
         <v>388706.8069205461</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="E2" t="n">
-        <v>273773.5195150982</v>
+        <v>273773.5195150983</v>
       </c>
       <c r="F2" t="n">
+        <v>273773.5195150983</v>
+      </c>
+      <c r="G2" t="n">
+        <v>273773.5195150983</v>
+      </c>
+      <c r="H2" t="n">
         <v>273773.5195150984</v>
-      </c>
-      <c r="G2" t="n">
-        <v>273773.5195150984</v>
-      </c>
-      <c r="H2" t="n">
-        <v>273773.5195150983</v>
       </c>
       <c r="I2" t="n">
         <v>388706.8069205462</v>
@@ -26343,13 +26343,13 @@
         <v>388706.8069205462</v>
       </c>
       <c r="L2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="M2" t="n">
         <v>314512.4297880562</v>
       </c>
       <c r="N2" t="n">
-        <v>314512.4297880561</v>
+        <v>314512.4297880562</v>
       </c>
       <c r="O2" t="n">
         <v>314512.4297880562</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>136466.523578091</v>
+        <v>136466.5235780909</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26423,19 +26423,19 @@
         <v>236621.7058186226</v>
       </c>
       <c r="D4" t="n">
-        <v>236621.7058186225</v>
+        <v>236621.7058186226</v>
       </c>
       <c r="E4" t="n">
-        <v>66918.74581746393</v>
+        <v>66918.74581746392</v>
       </c>
       <c r="F4" t="n">
-        <v>66918.74581746393</v>
+        <v>66918.74581746392</v>
       </c>
       <c r="G4" t="n">
         <v>66918.74581746392</v>
       </c>
       <c r="H4" t="n">
-        <v>66918.74581746393</v>
+        <v>66918.74581746392</v>
       </c>
       <c r="I4" t="n">
         <v>111641.9147658912</v>
@@ -26450,10 +26450,10 @@
         <v>111641.9147658912</v>
       </c>
       <c r="M4" t="n">
+        <v>82771.18689908872</v>
+      </c>
+      <c r="N4" t="n">
         <v>82771.18689908873</v>
-      </c>
-      <c r="N4" t="n">
-        <v>82771.18689908872</v>
       </c>
       <c r="O4" t="n">
         <v>82771.18689908873</v>
@@ -26490,7 +26490,7 @@
         <v>51074.38289017887</v>
       </c>
       <c r="I5" t="n">
-        <v>82275.99778162382</v>
+        <v>82275.99778162381</v>
       </c>
       <c r="J5" t="n">
         <v>82275.99778162382</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49530.98769500875</v>
+        <v>-49530.98769500871</v>
       </c>
       <c r="C6" t="n">
         <v>92660.31296470115</v>
       </c>
       <c r="D6" t="n">
-        <v>92660.31296470127</v>
+        <v>92660.31296470115</v>
       </c>
       <c r="E6" t="n">
-        <v>-132383.0417934661</v>
+        <v>-132779.3634741745</v>
       </c>
       <c r="F6" t="n">
-        <v>155780.3908074556</v>
+        <v>155384.0691267471</v>
       </c>
       <c r="G6" t="n">
-        <v>155780.3908074556</v>
+        <v>155384.0691267471</v>
       </c>
       <c r="H6" t="n">
-        <v>155780.3908074555</v>
+        <v>155384.0691267471</v>
       </c>
       <c r="I6" t="n">
-        <v>58322.37079494013</v>
+        <v>58322.37079494032</v>
       </c>
       <c r="J6" t="n">
-        <v>83774.42902804102</v>
+        <v>83774.42902804099</v>
       </c>
       <c r="K6" t="n">
         <v>194788.8943730312</v>
       </c>
       <c r="L6" t="n">
-        <v>194788.8943730312</v>
+        <v>194788.8943730311</v>
       </c>
       <c r="M6" t="n">
-        <v>169607.2286410788</v>
+        <v>169351.3859613116</v>
       </c>
       <c r="N6" t="n">
-        <v>169607.2286410787</v>
+        <v>169351.3859613116</v>
       </c>
       <c r="O6" t="n">
-        <v>169607.2286410788</v>
+        <v>169351.3859613116</v>
       </c>
       <c r="P6" t="n">
-        <v>169607.2286410788</v>
+        <v>169351.3859613116</v>
       </c>
     </row>
   </sheetData>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>513.1844554513973</v>
+        <v>513.1844554513971</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201045</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>319.1984854881359</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>73.13130200746662</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>112.9811551168681</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>47.87529609308712</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27602,7 +27602,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27675,16 +27675,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>113.7278999628232</v>
+        <v>155.9466570854679</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>27.21890307750161</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>20.8852556407801</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>101.7445521115758</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>12.57673674162123</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>166.8637028994625</v>
       </c>
       <c r="X10" t="n">
-        <v>13.07425212110397</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34722,7 +34722,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P4" t="n">
-        <v>298.4303698644312</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="P6" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>52.98895607821123</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>298.4303698644312</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35184,7 +35184,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>236.2898988798406</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J11" t="n">
-        <v>80.37335912911109</v>
+        <v>520.024558576503</v>
       </c>
       <c r="K11" t="n">
-        <v>755.5784814302224</v>
+        <v>120.4588306905217</v>
       </c>
       <c r="L11" t="n">
         <v>149.4398311700284</v>
@@ -35424,10 +35424,10 @@
         <v>168.9712001980013</v>
       </c>
       <c r="O11" t="n">
-        <v>614.2403056778978</v>
+        <v>190.3065315610165</v>
       </c>
       <c r="P11" t="n">
-        <v>136.1762560210323</v>
+        <v>755.5784814302224</v>
       </c>
       <c r="Q11" t="n">
         <v>654.2816727882132</v>
@@ -35488,28 +35488,28 @@
         <v>17.44478452089645</v>
       </c>
       <c r="J12" t="n">
-        <v>375.7065139697293</v>
+        <v>333.7363052527678</v>
       </c>
       <c r="K12" t="n">
-        <v>81.81715053577636</v>
+        <v>81.81715053577642</v>
       </c>
       <c r="L12" t="n">
         <v>110.0132557588508</v>
       </c>
       <c r="M12" t="n">
-        <v>128.3802804805334</v>
+        <v>128.3802804805335</v>
       </c>
       <c r="N12" t="n">
         <v>131.7781244974062</v>
       </c>
       <c r="O12" t="n">
-        <v>120.5512389687988</v>
+        <v>120.5512389687987</v>
       </c>
       <c r="P12" t="n">
         <v>96.75299725742548</v>
       </c>
       <c r="Q12" t="n">
-        <v>568.9075557906629</v>
+        <v>610.8777645076243</v>
       </c>
       <c r="R12" t="n">
         <v>31.45839104175934</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.06916813819313</v>
+        <v>117.4862154462128</v>
       </c>
       <c r="K13" t="n">
-        <v>326.8855742539915</v>
+        <v>254.4685269459718</v>
       </c>
       <c r="L13" t="n">
         <v>485.5875134343806</v>
@@ -35646,10 +35646,10 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J14" t="n">
-        <v>80.37335912911109</v>
+        <v>520.024558576503</v>
       </c>
       <c r="K14" t="n">
-        <v>755.5784814302224</v>
+        <v>120.4588306905217</v>
       </c>
       <c r="L14" t="n">
         <v>149.4398311700284</v>
@@ -35661,16 +35661,16 @@
         <v>168.9712001980013</v>
       </c>
       <c r="O14" t="n">
-        <v>165.7007719384619</v>
+        <v>190.3065315610165</v>
       </c>
       <c r="P14" t="n">
-        <v>755.5784814302226</v>
+        <v>755.5784814302224</v>
       </c>
       <c r="Q14" t="n">
         <v>654.2816727882132</v>
       </c>
       <c r="R14" t="n">
-        <v>59.48544774319544</v>
+        <v>230.3481394129499</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>17.44478452089645</v>
+        <v>43.77172710721726</v>
       </c>
       <c r="J15" t="n">
-        <v>47.8698220846663</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K15" t="n">
-        <v>81.81715053577639</v>
+        <v>441.3646058362677</v>
       </c>
       <c r="L15" t="n">
         <v>110.0132557588508</v>
       </c>
       <c r="M15" t="n">
-        <v>128.3802804805335</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N15" t="n">
         <v>131.7781244974062</v>
       </c>
       <c r="O15" t="n">
-        <v>120.5512389687987</v>
+        <v>120.5512389687988</v>
       </c>
       <c r="P15" t="n">
-        <v>264.263138916093</v>
+        <v>96.75299725742548</v>
       </c>
       <c r="Q15" t="n">
-        <v>610.8777645076243</v>
+        <v>64.67681639441662</v>
       </c>
       <c r="R15" t="n">
         <v>149.8147325511934</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.06916813819313</v>
+        <v>117.4862154462128</v>
       </c>
       <c r="K16" t="n">
         <v>326.8855742539915</v>
@@ -35813,7 +35813,7 @@
         <v>485.5875134343806</v>
       </c>
       <c r="M16" t="n">
-        <v>530.7114073200659</v>
+        <v>458.2943600120461</v>
       </c>
       <c r="N16" t="n">
         <v>511.7290796274197</v>
@@ -35883,31 +35883,31 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J17" t="n">
-        <v>80.37335912911109</v>
+        <v>520.024558576503</v>
       </c>
       <c r="K17" t="n">
-        <v>755.5784814302224</v>
+        <v>120.4588306905217</v>
       </c>
       <c r="L17" t="n">
-        <v>740.3998101133634</v>
+        <v>149.4398311700284</v>
       </c>
       <c r="M17" t="n">
         <v>166.2806061494812</v>
       </c>
       <c r="N17" t="n">
+        <v>223.1014757379855</v>
+      </c>
+      <c r="O17" t="n">
         <v>755.5784814302224</v>
-      </c>
-      <c r="O17" t="n">
-        <v>159.5547128878484</v>
       </c>
       <c r="P17" t="n">
         <v>136.1762560210323</v>
       </c>
       <c r="Q17" t="n">
-        <v>102.2626970724609</v>
+        <v>654.2816727882132</v>
       </c>
       <c r="R17" t="n">
-        <v>59.48544774319544</v>
+        <v>230.3481394129499</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>17.44478452089645</v>
       </c>
       <c r="J18" t="n">
-        <v>47.8698220846663</v>
+        <v>215.3799637433339</v>
       </c>
       <c r="K18" t="n">
-        <v>755.5784814302224</v>
+        <v>81.81715053577636</v>
       </c>
       <c r="L18" t="n">
         <v>110.0132557588508</v>
       </c>
       <c r="M18" t="n">
-        <v>128.3802804805334</v>
+        <v>128.3802804805335</v>
       </c>
       <c r="N18" t="n">
         <v>131.7781244974062</v>
       </c>
       <c r="O18" t="n">
-        <v>120.5512389687988</v>
+        <v>120.5512389687987</v>
       </c>
       <c r="P18" t="n">
         <v>96.75299725742548</v>
       </c>
       <c r="Q18" t="n">
-        <v>222.9829167812798</v>
+        <v>610.8777645076243</v>
       </c>
       <c r="R18" t="n">
-        <v>31.45839104175934</v>
+        <v>149.8147325511934</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.06916813819311</v>
+        <v>117.4862154462128</v>
       </c>
       <c r="K19" t="n">
         <v>326.8855742539915</v>
@@ -36050,7 +36050,7 @@
         <v>485.5875134343806</v>
       </c>
       <c r="M19" t="n">
-        <v>530.7114073200659</v>
+        <v>530.711407320066</v>
       </c>
       <c r="N19" t="n">
         <v>511.7290796274197</v>
@@ -36059,10 +36059,10 @@
         <v>483.9491387149683</v>
       </c>
       <c r="P19" t="n">
-        <v>402.3923466593105</v>
+        <v>402.392346659311</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.46127408043</v>
+        <v>133.0442267724097</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J20" t="n">
-        <v>80.37335912911109</v>
+        <v>520.024558576503</v>
       </c>
       <c r="K20" t="n">
-        <v>120.4588306905217</v>
+        <v>755.5784814302225</v>
       </c>
       <c r="L20" t="n">
         <v>149.4398311700284</v>
       </c>
       <c r="M20" t="n">
-        <v>166.2806061494811</v>
+        <v>166.2806061494812</v>
       </c>
       <c r="N20" t="n">
         <v>168.9712001980013</v>
       </c>
       <c r="O20" t="n">
-        <v>755.5784814302226</v>
+        <v>159.5547128878484</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9577310084087</v>
+        <v>322.0733410334442</v>
       </c>
       <c r="Q20" t="n">
         <v>654.2816727882132</v>
       </c>
       <c r="R20" t="n">
-        <v>230.3481394129494</v>
+        <v>59.48544774319544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>17.44478452089645</v>
+        <v>43.77172710721726</v>
       </c>
       <c r="J21" t="n">
         <v>375.7065139697293</v>
       </c>
       <c r="K21" t="n">
-        <v>81.81715053577636</v>
+        <v>441.3646058362677</v>
       </c>
       <c r="L21" t="n">
-        <v>614.2439951550971</v>
+        <v>110.0132557588508</v>
       </c>
       <c r="M21" t="n">
         <v>128.3802804805334</v>
@@ -36223,7 +36223,7 @@
         <v>64.67681639441662</v>
       </c>
       <c r="R21" t="n">
-        <v>31.45839104175934</v>
+        <v>149.8147325511934</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.06916813819311</v>
+        <v>117.4862154462128</v>
       </c>
       <c r="K22" t="n">
         <v>326.8855742539915</v>
@@ -36287,7 +36287,7 @@
         <v>485.5875134343806</v>
       </c>
       <c r="M22" t="n">
-        <v>530.7114073200659</v>
+        <v>530.711407320066</v>
       </c>
       <c r="N22" t="n">
         <v>511.7290796274197</v>
@@ -36296,7 +36296,7 @@
         <v>483.9491387149683</v>
       </c>
       <c r="P22" t="n">
-        <v>402.3923466593105</v>
+        <v>329.9752993512907</v>
       </c>
       <c r="Q22" t="n">
         <v>205.46127408043</v>
@@ -36357,31 +36357,31 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J23" t="n">
-        <v>80.37335912911109</v>
+        <v>520.0245585765031</v>
       </c>
       <c r="K23" t="n">
-        <v>120.4588306905217</v>
+        <v>963.2369033755499</v>
       </c>
       <c r="L23" t="n">
-        <v>1235.358989001199</v>
+        <v>1152.142257654308</v>
       </c>
       <c r="M23" t="n">
         <v>166.2806061494812</v>
       </c>
       <c r="N23" t="n">
-        <v>1268.76293688162</v>
+        <v>168.9712001980015</v>
       </c>
       <c r="O23" t="n">
-        <v>1149.635184170987</v>
+        <v>159.5547128878484</v>
       </c>
       <c r="P23" t="n">
-        <v>805.074897471166</v>
+        <v>972.8528972668873</v>
       </c>
       <c r="Q23" t="n">
-        <v>102.2626970724614</v>
+        <v>654.2816727882137</v>
       </c>
       <c r="R23" t="n">
-        <v>59.48544774319544</v>
+        <v>230.3481394129494</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>17.44478452089645</v>
+        <v>43.77172710721727</v>
       </c>
       <c r="J24" t="n">
-        <v>47.86982208466631</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K24" t="n">
-        <v>81.81715053577639</v>
+        <v>441.3646058362676</v>
       </c>
       <c r="L24" t="n">
-        <v>942.0806870401599</v>
+        <v>110.0132557588508</v>
       </c>
       <c r="M24" t="n">
         <v>128.3802804805334</v>
@@ -36460,7 +36460,7 @@
         <v>64.67681639441662</v>
       </c>
       <c r="R24" t="n">
-        <v>31.45839104175934</v>
+        <v>149.8147325511934</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>117.4862154462128</v>
+        <v>117.4862154462129</v>
       </c>
       <c r="K25" t="n">
         <v>326.8855742539915</v>
@@ -36524,7 +36524,7 @@
         <v>485.5875134343808</v>
       </c>
       <c r="M25" t="n">
-        <v>530.711407320066</v>
+        <v>458.2943600120461</v>
       </c>
       <c r="N25" t="n">
         <v>511.7290796274197</v>
@@ -36536,7 +36536,7 @@
         <v>402.392346659311</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.0442267724102</v>
+        <v>205.46127408043</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J26" t="n">
-        <v>80.37335912911109</v>
+        <v>520.024558576503</v>
       </c>
       <c r="K26" t="n">
-        <v>963.2369033755501</v>
+        <v>963.2369033755499</v>
       </c>
       <c r="L26" t="n">
-        <v>149.4398311700284</v>
+        <v>1152.14225765431</v>
       </c>
       <c r="M26" t="n">
         <v>166.2806061494812</v>
       </c>
       <c r="N26" t="n">
-        <v>621.2443548465367</v>
+        <v>168.9712001980015</v>
       </c>
       <c r="O26" t="n">
-        <v>1149.635184170986</v>
+        <v>159.5547128878484</v>
       </c>
       <c r="P26" t="n">
         <v>972.8528972668873</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>17.44478452089645</v>
+        <v>43.77172710721725</v>
       </c>
       <c r="J27" t="n">
-        <v>47.86982208466631</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K27" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577636</v>
       </c>
       <c r="L27" t="n">
         <v>110.0132557588508</v>
       </c>
       <c r="M27" t="n">
-        <v>128.3802804805335</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N27" t="n">
-        <v>963.8455557787153</v>
+        <v>131.7781244974062</v>
       </c>
       <c r="O27" t="n">
         <v>120.5512389687988</v>
@@ -36694,10 +36694,10 @@
         <v>96.75299725742548</v>
       </c>
       <c r="Q27" t="n">
-        <v>64.67681639441662</v>
+        <v>424.2242716949079</v>
       </c>
       <c r="R27" t="n">
-        <v>31.45839104175934</v>
+        <v>149.8147325511934</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.06916813819369</v>
+        <v>117.4862154462128</v>
       </c>
       <c r="K28" t="n">
-        <v>326.8855742539915</v>
+        <v>254.4685269459719</v>
       </c>
       <c r="L28" t="n">
         <v>485.5875134343806</v>
@@ -36764,10 +36764,10 @@
         <v>530.7114073200659</v>
       </c>
       <c r="N28" t="n">
-        <v>511.7290796274194</v>
+        <v>511.7290796274197</v>
       </c>
       <c r="O28" t="n">
-        <v>483.9491387149681</v>
+        <v>483.9491387149683</v>
       </c>
       <c r="P28" t="n">
         <v>402.392346659311</v>
@@ -36837,25 +36837,25 @@
         <v>963.2369033755499</v>
       </c>
       <c r="L29" t="n">
-        <v>332.9244780409254</v>
+        <v>149.4398311700284</v>
       </c>
       <c r="M29" t="n">
         <v>166.2806061494812</v>
       </c>
       <c r="N29" t="n">
-        <v>168.9712001980015</v>
+        <v>181.593155399145</v>
       </c>
       <c r="O29" t="n">
         <v>1149.635184170986</v>
       </c>
       <c r="P29" t="n">
-        <v>972.8528972668869</v>
+        <v>972.8528972668873</v>
       </c>
       <c r="Q29" t="n">
-        <v>654.2816727882137</v>
+        <v>654.2816727882127</v>
       </c>
       <c r="R29" t="n">
-        <v>59.48544774319544</v>
+        <v>230.3481394129494</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>17.44478452089645</v>
+        <v>43.77172710721725</v>
       </c>
       <c r="J30" t="n">
-        <v>333.7363052527677</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K30" t="n">
-        <v>81.81715053577636</v>
+        <v>441.3646058362676</v>
       </c>
       <c r="L30" t="n">
         <v>110.0132557588508</v>
       </c>
       <c r="M30" t="n">
-        <v>128.3802804805335</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N30" t="n">
         <v>131.7781244974062</v>
       </c>
       <c r="O30" t="n">
-        <v>120.5512389687987</v>
+        <v>120.5512389687988</v>
       </c>
       <c r="P30" t="n">
         <v>96.75299725742548</v>
       </c>
       <c r="Q30" t="n">
-        <v>610.8777645076243</v>
+        <v>64.67681639441662</v>
       </c>
       <c r="R30" t="n">
-        <v>31.45839104175934</v>
+        <v>149.8147325511934</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>117.4862154462128</v>
       </c>
       <c r="K31" t="n">
-        <v>254.4685269459719</v>
+        <v>326.8855742539915</v>
       </c>
       <c r="L31" t="n">
-        <v>485.5875134343806</v>
+        <v>485.5875134343808</v>
       </c>
       <c r="M31" t="n">
-        <v>530.7114073200659</v>
+        <v>458.2943600120461</v>
       </c>
       <c r="N31" t="n">
         <v>511.7290796274197</v>
@@ -37074,7 +37074,7 @@
         <v>963.2369033755499</v>
       </c>
       <c r="L32" t="n">
-        <v>1152.142257654309</v>
+        <v>1152.14225765431</v>
       </c>
       <c r="M32" t="n">
         <v>166.2806061494812</v>
@@ -37086,10 +37086,10 @@
         <v>159.5547128878484</v>
       </c>
       <c r="P32" t="n">
-        <v>972.8528972668869</v>
+        <v>972.8528972668873</v>
       </c>
       <c r="Q32" t="n">
-        <v>654.2816727882137</v>
+        <v>654.2816727882127</v>
       </c>
       <c r="R32" t="n">
         <v>230.3481394129494</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>17.44478452089645</v>
+        <v>43.77172710721725</v>
       </c>
       <c r="J33" t="n">
-        <v>333.7363052527677</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K33" t="n">
         <v>81.81715053577636</v>
@@ -37156,22 +37156,22 @@
         <v>110.0132557588508</v>
       </c>
       <c r="M33" t="n">
-        <v>128.3802804805335</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N33" t="n">
         <v>131.7781244974062</v>
       </c>
       <c r="O33" t="n">
-        <v>120.5512389687987</v>
+        <v>120.5512389687988</v>
       </c>
       <c r="P33" t="n">
         <v>96.75299725742548</v>
       </c>
       <c r="Q33" t="n">
-        <v>610.8777645076243</v>
+        <v>424.2242716949079</v>
       </c>
       <c r="R33" t="n">
-        <v>31.45839104175934</v>
+        <v>149.8147325511934</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.06916813819321</v>
+        <v>117.4862154462128</v>
       </c>
       <c r="K34" t="n">
         <v>326.8855742539915</v>
       </c>
       <c r="L34" t="n">
-        <v>485.5875134343806</v>
+        <v>485.5875134343808</v>
       </c>
       <c r="M34" t="n">
-        <v>530.7114073200659</v>
+        <v>530.711407320066</v>
       </c>
       <c r="N34" t="n">
         <v>511.7290796274197</v>
@@ -37247,7 +37247,7 @@
         <v>402.392346659311</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.46127408043</v>
+        <v>133.0442267724102</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J35" t="n">
-        <v>80.37335912911111</v>
+        <v>520.024558576503</v>
       </c>
       <c r="K35" t="n">
         <v>120.4588306905217</v>
       </c>
       <c r="L35" t="n">
+        <v>149.4398311700285</v>
+      </c>
+      <c r="M35" t="n">
+        <v>166.2806061494812</v>
+      </c>
+      <c r="N35" t="n">
+        <v>168.9712001980013</v>
+      </c>
+      <c r="O35" t="n">
+        <v>728.6624572336912</v>
+      </c>
+      <c r="P35" t="n">
         <v>937.4803129715017</v>
       </c>
-      <c r="M35" t="n">
-        <v>937.4803129715017</v>
-      </c>
-      <c r="N35" t="n">
-        <v>937.4803129715015</v>
-      </c>
-      <c r="O35" t="n">
-        <v>159.5547128878484</v>
-      </c>
-      <c r="P35" t="n">
-        <v>136.1762560210323</v>
-      </c>
       <c r="Q35" t="n">
-        <v>136.5953721349233</v>
+        <v>654.2816727882132</v>
       </c>
       <c r="R35" t="n">
         <v>230.3481394129499</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>117.4862154462128</v>
+        <v>117.4862154462129</v>
       </c>
       <c r="K37" t="n">
         <v>326.8855742539915</v>
       </c>
       <c r="L37" t="n">
-        <v>485.5875134343806</v>
+        <v>413.170466126361</v>
       </c>
       <c r="M37" t="n">
         <v>530.7114073200659</v>
       </c>
       <c r="N37" t="n">
-        <v>511.7290796274194</v>
+        <v>511.7290796274197</v>
       </c>
       <c r="O37" t="n">
         <v>483.9491387149683</v>
       </c>
       <c r="P37" t="n">
-        <v>402.392346659311</v>
+        <v>402.3923466593105</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.0442267724102</v>
+        <v>205.46127408043</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,22 +37551,22 @@
         <v>937.4803129715017</v>
       </c>
       <c r="M38" t="n">
-        <v>937.4803129715017</v>
+        <v>166.2806061494812</v>
       </c>
       <c r="N38" t="n">
+        <v>168.9712001980013</v>
+      </c>
+      <c r="O38" t="n">
         <v>937.4803129715015</v>
       </c>
-      <c r="O38" t="n">
-        <v>364.7500796200652</v>
-      </c>
       <c r="P38" t="n">
-        <v>136.1762560210323</v>
+        <v>932.2921505953623</v>
       </c>
       <c r="Q38" t="n">
         <v>102.2626970724609</v>
       </c>
       <c r="R38" t="n">
-        <v>59.48544774319544</v>
+        <v>230.3481394129499</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>17.44478452089652</v>
+        <v>17.44478452089645</v>
       </c>
       <c r="J39" t="n">
-        <v>333.736305252768</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K39" t="n">
         <v>81.81715053577636</v>
@@ -37630,7 +37630,7 @@
         <v>110.0132557588508</v>
       </c>
       <c r="M39" t="n">
-        <v>128.3802804805337</v>
+        <v>128.3802804805335</v>
       </c>
       <c r="N39" t="n">
         <v>131.7781244974062</v>
@@ -37639,13 +37639,13 @@
         <v>120.5512389687988</v>
       </c>
       <c r="P39" t="n">
-        <v>96.75299725742525</v>
+        <v>96.75299725742548</v>
       </c>
       <c r="Q39" t="n">
-        <v>610.8777645076243</v>
+        <v>568.9075557906629</v>
       </c>
       <c r="R39" t="n">
-        <v>31.45839104175911</v>
+        <v>31.45839104175934</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>117.4862154462128</v>
+        <v>45.06916813819318</v>
       </c>
       <c r="K40" t="n">
         <v>326.8855742539915</v>
@@ -37712,16 +37712,16 @@
         <v>530.7114073200659</v>
       </c>
       <c r="N40" t="n">
-        <v>511.7290796274194</v>
+        <v>511.7290796274197</v>
       </c>
       <c r="O40" t="n">
         <v>483.9491387149683</v>
       </c>
       <c r="P40" t="n">
-        <v>402.392346659311</v>
+        <v>402.3923466593105</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.0442267724102</v>
+        <v>205.46127408043</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>120.4588306905217</v>
       </c>
       <c r="L41" t="n">
-        <v>419.7940123182121</v>
+        <v>149.4398311700284</v>
       </c>
       <c r="M41" t="n">
         <v>937.4803129715017</v>
@@ -37794,13 +37794,13 @@
         <v>937.4803129715017</v>
       </c>
       <c r="O41" t="n">
-        <v>159.5547128878479</v>
+        <v>180.6238128013147</v>
       </c>
       <c r="P41" t="n">
-        <v>136.1762560210323</v>
+        <v>937.4803129715015</v>
       </c>
       <c r="Q41" t="n">
-        <v>654.2816727882132</v>
+        <v>102.2626970724609</v>
       </c>
       <c r="R41" t="n">
         <v>230.3481394129499</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.06916813819321</v>
+        <v>117.4862154462129</v>
       </c>
       <c r="K43" t="n">
         <v>326.8855742539915</v>
@@ -37952,13 +37952,13 @@
         <v>511.7290796274194</v>
       </c>
       <c r="O43" t="n">
-        <v>483.9491387149681</v>
+        <v>483.9491387149683</v>
       </c>
       <c r="P43" t="n">
-        <v>402.392346659311</v>
+        <v>402.3923466593105</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.46127408043</v>
+        <v>133.0442267724106</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J44" t="n">
-        <v>80.37335912911111</v>
+        <v>520.024558576503</v>
       </c>
       <c r="K44" t="n">
-        <v>937.4803129715016</v>
+        <v>937.4803129715017</v>
       </c>
       <c r="L44" t="n">
         <v>149.4398311700284</v>
@@ -38031,10 +38031,10 @@
         <v>168.9712001980013</v>
       </c>
       <c r="O44" t="n">
-        <v>351.2921744001032</v>
+        <v>159.5547128878484</v>
       </c>
       <c r="P44" t="n">
-        <v>937.4803129715017</v>
+        <v>689.5665750363646</v>
       </c>
       <c r="Q44" t="n">
         <v>654.2816727882132</v>
@@ -38095,10 +38095,10 @@
         <v>17.44478452089645</v>
       </c>
       <c r="J45" t="n">
-        <v>333.7363052527679</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K45" t="n">
-        <v>81.81715053577642</v>
+        <v>81.81715053577636</v>
       </c>
       <c r="L45" t="n">
         <v>110.0132557588508</v>
@@ -38110,13 +38110,13 @@
         <v>131.7781244974062</v>
       </c>
       <c r="O45" t="n">
-        <v>120.5512389687987</v>
+        <v>120.5512389687988</v>
       </c>
       <c r="P45" t="n">
         <v>96.75299725742548</v>
       </c>
       <c r="Q45" t="n">
-        <v>610.8777645076243</v>
+        <v>568.9075557906629</v>
       </c>
       <c r="R45" t="n">
         <v>31.45839104175934</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>117.4862154462128</v>
+        <v>117.4862154462129</v>
       </c>
       <c r="K46" t="n">
         <v>326.8855742539915</v>
@@ -38192,10 +38192,10 @@
         <v>483.9491387149683</v>
       </c>
       <c r="P46" t="n">
-        <v>402.392346659311</v>
+        <v>402.3923466593105</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.0442267724102</v>
+        <v>133.0442267724106</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
